--- a/Excel/tasas_ldf.xlsx
+++ b/Excel/tasas_ldf.xlsx
@@ -31,25 +31,25 @@
     <t xml:space="preserve">DTF</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9260</t>
+    <t xml:space="preserve">14.89</t>
   </si>
   <si>
     <t xml:space="preserve">IBR 1M</t>
   </si>
   <si>
-    <t xml:space="preserve">29.99999999</t>
+    <t xml:space="preserve">15.26</t>
   </si>
   <si>
     <t xml:space="preserve">IBR 3M</t>
   </si>
   <si>
-    <t xml:space="preserve">15.25102</t>
+    <t xml:space="preserve">12.89678</t>
   </si>
   <si>
     <t xml:space="preserve">IBR 6M</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3055236</t>
+    <t xml:space="preserve">12.4735</t>
   </si>
 </sst>
 </file>
@@ -58,9 +58,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="#,##0;[RED]\-#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,6 +95,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -158,7 +163,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,6 +185,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -263,7 +272,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -293,7 +302,7 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
